--- a/outputs/19_output.xlsx
+++ b/outputs/19_output.xlsx
@@ -693,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O30"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -879,1224 +879,397 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>MLK_PMT_10104_-_V-004</t>
+          <t>MLK_PMT_10101_-_V-001</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Shell Plate</t>
+          <t>Shell</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hot Water</t>
+          <t>LPG / WATER / STEAM / AIR</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>ASTM A240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>304L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>120 °C</t>
+          <t>100 C</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>14 Bar</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>90 °C</t>
+          <t>70 C</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>10 Bar</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="E9" t="inlineStr">
         <is>
-          <t>2:1 Ellipsoidal Head</t>
+          <t>Top Head</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hot Water</t>
+          <t>LPG / WATER / STEAM / AIR</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>ASTM A240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>304L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>120 °C</t>
+          <t>100 C</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>14 Bar</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>90 °C</t>
+          <t>70 C</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>10 Bar</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="E10" t="inlineStr">
         <is>
-          <t>Lifting Lug</t>
+          <t>Plate Head</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hot Water</t>
+          <t>LPG / WATER / STEAM / AIR</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>ASTM A240</t>
+          <t>SA-516</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>304L</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>120 °C</t>
+          <t>100 C</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>14 Bar</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>90 °C</t>
+          <t>70 C</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>10 Bar</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="E11" t="inlineStr">
         <is>
-          <t>Saddle Plate</t>
+          <t>Pipe</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hot Water</t>
+          <t>LPG / WATER / STEAM / AIR</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>ASTM A240</t>
+          <t>SA-106</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>304L</t>
+          <t>B</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>120 °C</t>
+          <t>100 C</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>14 Bar</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>90 °C</t>
+          <t>70 C</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>10 Bar</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="E12" t="inlineStr">
         <is>
-          <t>Saddle Baseplate</t>
+          <t>Flange</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hot Water</t>
+          <t>LPG / WATER / STEAM / AIR</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>ASTM A240</t>
+          <t>SA-105</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>304L</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>120 °C</t>
+          <t>100 C</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>14 Bar</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>90 °C</t>
+          <t>70 C</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>10 Bar</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="E13" t="inlineStr">
         <is>
-          <t>Flange</t>
+          <t>Coupling</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hot Water</t>
+          <t>LPG / WATER / STEAM / AIR</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>ASTM A182</t>
+          <t>SA-105</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>F304L</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>120 °C</t>
+          <t>100 C</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>14 Bar</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>90 °C</t>
+          <t>70 C</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1 BarG</t>
+          <t>10 Bar</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="E14" t="inlineStr">
         <is>
-          <t>Neck</t>
+          <t>Full Coupling</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hot Water</t>
+          <t>LPG / WATER / STEAM / AIR</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Stainless Steel</t>
+          <t>Carbon Steel</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>ASTM A312</t>
+          <t>SA-105</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>TP304L</t>
+          <t>Not Found</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>No</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>120 °C</t>
+          <t>100 C</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>4 BarG</t>
+          <t>14 Bar</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>90 °C</t>
+          <t>70 C</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Blind Flange</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>ASTM A182</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>F304L</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Spiral Wound Gasket</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>ASTM A182</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>F304L</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Neck</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>ASTM A240</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>304L</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>Stud Bolt</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Stainless Steel Bolting</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>ASTM A193</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>GR B8M</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Nuts &amp; Washer</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Heavy Hex Nuts</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>ASTM A194</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>GR 2H</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Bracket 1</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Angle Bar</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Bracket 2</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Bracket 3</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Grating</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Flat Plate</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Side Rail</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Ladder Bracket</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>Round Bar</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Saddle Support Plate</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Stainless Steel</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>ASTM A240</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>304L</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>Pad Plate</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Hot Water</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Not Found</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>ASTM A36</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>120 °C</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>4 BarG</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>90 °C</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>1 BarG</t>
+          <t>10 Bar</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A8:A30"/>
-    <mergeCell ref="C8:C30"/>
     <mergeCell ref="D5:D7"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H5:J6"/>
-    <mergeCell ref="D8:D30"/>
+    <mergeCell ref="A8:A14"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="G5:G7"/>
     <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C8:C14"/>
     <mergeCell ref="A3:A4"/>
+    <mergeCell ref="D8:D14"/>
     <mergeCell ref="D3:D4"/>
-    <mergeCell ref="B8:B30"/>
     <mergeCell ref="C5:C7"/>
     <mergeCell ref="E5:E7"/>
     <mergeCell ref="K5:K7"/>
     <mergeCell ref="F5:F7"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B8:B14"/>
     <mergeCell ref="L5:M6"/>
     <mergeCell ref="N5:O6"/>
   </mergeCells>
